--- a/experiments/dbscan-ajk/instructor-xl/0.2/prediction.xlsx
+++ b/experiments/dbscan-ajk/instructor-xl/0.2/prediction.xlsx
@@ -468,27 +468,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
+          <t>AE Locked. Metering disabled</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
+          <t>APAS has been enabled</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Cannot find subject</t>
+          <t>API Automatic Return Home</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
+          <t>API Automatic Takeoff</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Paused</t>
+          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -518,27 +518,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
+          <t>Accelerator is Over Range</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
+          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
+          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
+          <t>ActiveTrack Flight Ended: Cannot find subject</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Aircraft battery level low. Return to home promptly</t>
+          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Aircraft close to Home Point. go home shifts to landing.</t>
+          <t>ActiveTrack Flight Paused</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Aircraft Core Board Overheated</t>
+          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
+          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Aircraft flight control locked</t>
+          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -608,47 +608,47 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller A</t>
+          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller B</t>
+          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
+          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Aircraft flight control unlocked</t>
+          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
+          <t>Aircraft Core Board Overheated</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak. Home Point not updated</t>
+          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Aircraft GPS signal too weak. Home Point not updated</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
+          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Fly with caution</t>
+          <t>Aircraft battery level low. Return to home promptly</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Aircraft close to Home Point. go home shifts to landing.</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -718,17 +718,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
+          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
+          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
+          <t>Aircraft flight control locked</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
+          <t>Aircraft flight control obtained by remote controller A</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Aircraft is entering a restricted area</t>
+          <t>Aircraft flight control obtained by remote controller B</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Aircraft is flying back to the start point</t>
+          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
+          <t>Aircraft flight control unlocked</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
+          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
+          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Aircraft is now following you.</t>
+          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Aircraft in high interference environment. Fly with caution</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the starting point</t>
+          <t>Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
+          <t>Aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Aircraft is too far away</t>
+          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -908,17 +908,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
+          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
+          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -928,17 +928,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Aircraft out of Range</t>
+          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
+          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient. Fly with caution</t>
+          <t>Aircraft is now following you.</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Aircraft processor overheated. Automatically returning to home</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error. Restart aircraft</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Aircraft is returning to the starting point</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Aircraft will automatically descend in nnn</t>
+          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
+          <t>Aircraft is too far away</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
+          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
+          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1068,17 +1068,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
+          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Altitude Zone nnn</t>
+          <t>Aircraft out of Range</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak.</t>
+          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
+          <t>Aircraft power insufficient. Fly with caution</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak</t>
+          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Aircraft processor overheated. Automatically returning to home</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1138,17 +1138,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Aircraft settings updated to comply with national regulations</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
+          <t>Aircraft takeoff altitude error. Restart aircraft</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Fly with caution</t>
+          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>API Automatic Return Home</t>
+          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>API Automatic Takeoff</t>
+          <t>Aircraft will automatically descend in nnn</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
+          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Attitude is too large.</t>
+          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
+          <t>Altitude Zone nnn</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
+          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
+          <t>Ambient Light is too weak.</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
+          <t>Ambient Light too Weak</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Auto Landing in nnn(s)</t>
+          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Auto landing initiated</t>
+          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning.</t>
+          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Barometer initialization failed. Restart aircraft</t>
+          <t>Another aircraft is nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1328,17 +1328,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
+          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Battery cell broken, please replace the battery</t>
+          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1348,57 +1348,57 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Battery cells undervoltage</t>
+          <t>Arrived at End Point</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
+          <t>Arrived at Start Point. Starting Waypoint Mission</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Battery error. Aircraft returning to home automatically</t>
+          <t>Arrived at destination</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
+          <t>At Least Two Waypoints Required</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Battery level low. Charge battery</t>
+          <t>At least two Waypoints are needed</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Battery nnn requires maintenance</t>
+          <t>Attitude is too large.</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
+          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
+          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Battery power low. Check battery status and charge or warm up battery</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
+          <t>Auto Landing in nnn(s)</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Battery Signal Error. Check battery connection.</t>
+          <t>Auto landing initiated</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1468,47 +1468,47 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
+          <t>Auxiliary Bottom Light set to automatic mode</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Battery temperature too low. Fly with caution</t>
+          <t>Auxiliary Bottom Light turned off</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Battery Voltage Difference too large. Check Battery Status</t>
+          <t>Auxiliary Bottom Light turned on</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
+          <t>Away and Follow in progress.</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Battery: Connection Error</t>
+          <t>Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Battery: Low Voltage Protection</t>
+          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Battery: Overcurrent During Discharge</t>
+          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
+          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1548,17 +1548,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Calibration target not far away enough. Please calibrate using infinity</t>
+          <t>Barometer Dead in Air</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Camera error. AI Spot-Check failed. Restart camera</t>
+          <t>Barometer initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
+          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Battery Signal Error. Check battery connection.</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Battery Voltage Difference too large. Check Battery Status</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
+          <t>Battery cell broken, please replace the battery</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Cancel Landing Failed</t>
+          <t>Battery cells undervoltage</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Cancel Return-to-Home Failed</t>
+          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
+          <t>Battery error. Aircraft returning to home automatically</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
+          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
+          <t>Battery level low. Charge battery</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Cannot Enter TapFly Cannot fly in that direction</t>
+          <t>Battery nnn requires maintenance</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Cannot enter the selected flight mode. Try again later.</t>
+          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Cannot Identify Subject</t>
+          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Cannot start Return to Home due to weak GPS signal</t>
+          <t>Battery power low. Check battery status and charge or warm up battery</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
+          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
+          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -1728,7 +1728,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Cannot takeoff in a no-fly zone</t>
+          <t>Battery temperature too low. Fly with caution</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
+          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -1748,7 +1748,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
+          <t>Battery: Connection Error</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Cannot Track Subject. Cannot Identify Subject</t>
+          <t>Battery: Low Voltage Protection</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
+          <t>Battery: Overcurrent During Discharge</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -1778,47 +1778,47 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Cannot track subject: Gimbal Tilt too Large</t>
+          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Cannot track subject: No image. Please retry</t>
+          <t>Braking now! Return sticks to midpoints first.</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
+          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
+          <t>Cache Space Full</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
+          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
+          <t>Calibration target not far away enough. Please calibrate using infinity</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -1838,7 +1838,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
+          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -1848,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Compass data error. Please contact DJI Support</t>
+          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -1858,47 +1858,47 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Compass direction is not the same with IMU</t>
+          <t>Camera Settings ActiveTrack Optimized</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Camera Settings Adjusted</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Camera Settings Adjusted to ActiveTrack</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Compass error, calibration required</t>
+          <t>Camera busy, cannot enter playback</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
+          <t>Camera error. AI Spot-Check failed. Restart camera</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -1908,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -1918,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
+          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -1928,17 +1928,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Compass Error. Compass direction is not the same with IMU</t>
+          <t>Camera storage full</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Compass Error. Compass disconnected</t>
+          <t>Cancel Landing Failed</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -1948,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Cancel Return-to-Home Failed</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -1958,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Cannot Enter TapFly Cannot fly in that direction</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -1968,7 +1968,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass disconnected</t>
+          <t>Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -1978,7 +1978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -1988,7 +1988,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Redundancy Switch</t>
+          <t>Cannot Track Subject. Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -1998,7 +1998,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
+          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2008,7 +2008,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Compass Error. Exit P-GPS Mode</t>
+          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Compass initialization failed. Restart aircraft</t>
+          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2038,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Cannot enter the selected flight mode. Try again later.</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2048,27 +2048,27 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude : 98ft</t>
+          <t>Cannot exit ActiveTrack</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude: nnn</t>
+          <t>Cannot send ActiveTrack command</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Compass Redundancy Switch</t>
+          <t>Cannot start Return to Home due to weak GPS signal</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2078,17 +2078,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
+          <t>Cannot start Self-Timer. Exposure time is too long</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2098,7 +2098,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Critical Low Battery</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -2108,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Critical low battery voltage</t>
+          <t>Cannot takeoff in a no-fly zone</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
+          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft landing automatically</t>
+          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft returning to home</t>
+          <t>Cannot track subject: Gimbal Tilt too Large</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Critical low battery. Recharge promptly</t>
+          <t>Cannot track subject: No image. Please retry</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2158,7 +2158,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Critical low battery. Return to home or land promptly</t>
+          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2168,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Critical low battery. Unable to take off. Recharge promptly</t>
+          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -2178,87 +2178,87 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Critically low power. Aircraft is landing</t>
+          <t>Capture Failed Cannot enter Pano mode</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing</t>
+          <t>Capture Failed Shooting interrupted</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
+          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
+          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
+          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Critically Low Voltage. Aircraft will land</t>
+          <t>Capture Failed. Shooting is currently not permitted</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Current elevation above nnn. Fly with caution</t>
+          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
+          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 12.</t>
+          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 13.</t>
+          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2278,47 +2278,47 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 15.</t>
+          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 17.</t>
+          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 18.</t>
+          <t>Command Failed</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 19.</t>
+          <t>Command Timeout</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 2.</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -2328,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 21.</t>
+          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 29.</t>
+          <t>Compass Error. Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -2348,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 3.</t>
+          <t>Compass Error. Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 30.</t>
+          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 4.</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 45.</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 46.</t>
+          <t>Compass Error. Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 5.</t>
+          <t>Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 57.</t>
+          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 65.</t>
+          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 7.</t>
+          <t>Compass Error. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 8.</t>
+          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -2448,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Distance limit enabled. Fly safely</t>
+          <t>Compass Interference. Temp Max Altitude : 98ft</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds</t>
+          <t>Compass Interference. Temp Max Altitude: nnn</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Downlink Lost.</t>
+          <t>Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 0.9s).</t>
+          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.1s).</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.2s).</t>
+          <t>Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.4s).</t>
+          <t>Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.5s).</t>
+          <t>Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.6s).</t>
+          <t>Compass error, calibration required</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.7s).</t>
+          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11.3s).</t>
+          <t>Compass initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11s).</t>
+          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -2568,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1s).</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -2578,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.2s).</t>
+          <t>Critical Low Battery</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -2588,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.3s).</t>
+          <t>Critical low battery voltage</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.9s).</t>
+          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.6s).</t>
+          <t>Critical low battery. Aircraft landing automatically</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.8s).</t>
+          <t>Critical low battery. Aircraft returning to home</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
+          <t>Critical low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Critical low battery. Return to home or land promptly</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Critical low battery. Unable to take off. Recharge promptly</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Downward infrared sensor failure. Land as soon as possible</t>
+          <t>Critically Low Power. Aircraft Landing</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
+          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Critically Low Voltage. Aircraft will land</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Drone is Vibrating</t>
+          <t>Critically low power. Aircraft is landing</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -2718,17 +2718,17 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Ensure control sticks are centered during takeoff</t>
+          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
+          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
+          <t>Current elevation above nnn. Fly with caution</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -2748,7 +2748,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
+          <t>Data Recorder File Index is 12.</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -2758,7 +2758,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
+          <t>Data Recorder File Index is 13.</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -2768,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Exited Hyperlapse mode</t>
+          <t>Data Recorder File Index is 15.</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -2778,7 +2778,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Exiting GPS mode: Unknown Error</t>
+          <t>Data Recorder File Index is 17.</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -2788,7 +2788,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Data Recorder File Index is 18.</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -2798,7 +2798,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Data Recorder File Index is 19.</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -2808,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
+          <t>Data Recorder File Index is 2.</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -2818,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Data Recorder File Index is 21.</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -2828,7 +2828,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>Data Recorder File Index is 29.</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -2838,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>Data Recorder File Index is 3.</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -2848,7 +2848,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Failed to cancel landing</t>
+          <t>Data Recorder File Index is 30.</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Failed to cancel Return to Home</t>
+          <t>Data Recorder File Index is 4.</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
+          <t>Data Recorder File Index is 45.</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
+          <t>Data Recorder File Index is 46.</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>Data Recorder File Index is 5.</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
+          <t>Data Recorder File Index is 57.</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Flight control mode error, cannot start recording QuickShot</t>
+          <t>Data Recorder File Index is 65.</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
+          <t>Data Recorder File Index is 7.</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Flight Mode Set to Attitude</t>
+          <t>Data Recorder File Index is 8.</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -2938,37 +2938,37 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
+          <t>Descending. Exited Visual Avoidance System</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
+          <t>Detecting subject</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning.</t>
+          <t>Disable SD card read and write protection or change card</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Distance limit enabled. Fly safely</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Responding</t>
+          <t>Downlink Lost.</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -2988,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Working.</t>
+          <t>Downlink Restored (after 0m 0.9s).</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Downlink Restored (after 0m 1.1s).</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Downlink Restored (after 0m 1.2s).</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -3018,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
+          <t>Downlink Restored (after 0m 1.4s).</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -3028,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Gimbal calibrating</t>
+          <t>Downlink Restored (after 0m 1.5s).</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
+          <t>Downlink Restored (after 0m 1.6s).</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
+          <t>Downlink Restored (after 0m 1.7s).</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
+          <t>Downlink Restored (after 0m 11.3s).</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Gimbal nnn pan axis endpoint reached</t>
+          <t>Downlink Restored (after 0m 11s).</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Gimbal nnn pitch axis endpoint reached</t>
+          <t>Downlink Restored (after 0m 1s).</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Gimbal nnn roll axis endpoint reached</t>
+          <t>Downlink Restored (after 0m 2.2s).</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Limit Reached.</t>
+          <t>Downlink Restored (after 0m 2.3s).</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Reached Movement Limit</t>
+          <t>Downlink Restored (after 0m 2.9s).</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Gimbal Recenter</t>
+          <t>Downlink Restored (after 0m 5.6s).</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Gimbal Roll Limit Reached.</t>
+          <t>Downlink Restored (after 0m 5.8s).</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
+          <t>Downlink data connection lost for nnn seconds</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Gimbal Yaw Limit Reached</t>
+          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>GPS module error. Restart aircraft</t>
+          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
+          <t>Downward infrared sensor failure. Land as soon as possible</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
+          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed. Restart aircraft</t>
+          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
+          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -3228,17 +3228,17 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
+          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
+          <t>Drone is Vibrating</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -3248,27 +3248,27 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>During Smart Track, you can control lens zoom within a certain limit</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>EMMC is full</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution.</t>
+          <t>Ensure control sticks are centered during takeoff</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -3278,17 +3278,17 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
+          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
+          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
+          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
+          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -3318,17 +3318,17 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Home Point Recorded.</t>
+          <t>Executing waypoint mission</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
+          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -3338,17 +3338,17 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
+          <t>Exited Cruise Control mode</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Home Point Recorded. RTH Altitude : 30m.</t>
+          <t>Exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -3358,17 +3358,17 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Home Point Recorded. Taking off.</t>
+          <t>Exited Visual Avoidance System.</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Home Point Updated.</t>
+          <t>Exiting GPS mode: Unknown Error</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Home Point updated. RTH altitude adjusted to nnn</t>
+          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Image Transmission Recovered. Aircraft is returning home.</t>
+          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Image transmission signal lost</t>
+          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
+          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Impact detected. Restart aircraft</t>
+          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>IMU attitude restricted. Ensure aircraft is level</t>
+          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
+          <t>Failed to cancel Return to Home</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Landing Canceled.</t>
+          <t>Failed to cancel landing</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Landing gear function restored</t>
+          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Landing Gear Lowered.</t>
+          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -3478,17 +3478,17 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>File system error. Change SD card</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Flight Mode Set to Attitude</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Landing Gear Lowering.</t>
+          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Landing Gear Paused.</t>
+          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Landing Gear Raised.</t>
+          <t>Flight control mode error, cannot start recording QuickShot</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Landing Gear Raising.</t>
+          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -3538,17 +3538,17 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Landing Gear Raising. Home Point Recorded</t>
+          <t>Flight height too low</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
+          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Landing.</t>
+          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Large Wind Velocity.</t>
+          <t>Forward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Large Wind Velocity. Fly with caution.</t>
+          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
+          <t>Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
+          <t>Forward Obstacle Sensing not Working.</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -3608,7 +3608,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -3618,7 +3618,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Low battery voltage. Fly with caution</t>
+          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -3628,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Low battery. Recharge promptly</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -3638,27 +3638,27 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Low battery. Return to home promptly</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Low power, please replace the battery</t>
+          <t>GPS Position Mismatch.</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Low Power. Aircraft is returning to the Home Point.</t>
+          <t>GPS module error. Restart aircraft</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -3668,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Low Power. Returning home.</t>
+          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B325" t="n">
@@ -3688,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
+          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -3698,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Manned aircraft approaching. Fly at a safe altitude</t>
+          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -3708,7 +3708,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Manned aircraft detected nearby. Fly with caution</t>
+          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -3718,7 +3718,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Manned aircraft too close. Fly at a safe altitude</t>
+          <t>Gimbal Pitch Limit Reached.</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -3728,7 +3728,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Gimbal Pitch Reached Movement Limit</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -3738,7 +3738,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
+          <t>Gimbal Recenter</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -3748,7 +3748,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Gimbal Roll Limit Reached.</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -3758,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
+          <t>Gimbal Yaw Limit Reached</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -3768,7 +3768,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached.</t>
+          <t>Gimbal calibrating</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -3778,7 +3778,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
+          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -3788,7 +3788,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
+          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -3798,7 +3798,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
+          <t>Gimbal nnn pan axis endpoint reached</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -3808,7 +3808,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Motor error. Check propellers and fly with caution</t>
+          <t>Gimbal nnn pitch axis endpoint reached</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -3818,7 +3818,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Motor idle. Check whether propellers are installed</t>
+          <t>Gimbal nnn roll axis endpoint reached</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -3828,7 +3828,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Motor is Blocked</t>
+          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -3838,17 +3838,17 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
+          <t>Ground Plain. Safe to Land.</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Motor is idling (lost or missing propeller)</t>
+          <t>Gyroscope initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -3858,7 +3858,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Motor nnn propeller detached or installed incorrectly</t>
+          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -3868,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Motor nnn stalled. Land aircraft immediately</t>
+          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -3878,7 +3878,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -3888,7 +3888,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Motor or propeller error. Check the motors and propellers.</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -3898,7 +3898,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -3908,7 +3908,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -3918,7 +3918,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>High wind velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -3928,7 +3928,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Motor unable to rotate. Check motor</t>
+          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -3938,7 +3938,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Navigation system error. Restart aircraft</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -3948,7 +3948,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -3958,7 +3958,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to hover. Fly with caution</t>
+          <t>Home Point Recorded.</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -3968,7 +3968,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
+          <t>Home Point Recorded. RTH Altitude : 30m.</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -3978,7 +3978,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
+          <t>Home Point Recorded. Taking off.</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -3988,7 +3988,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed</t>
+          <t>Home Point Updated.</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -3998,7 +3998,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -4008,7 +4008,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled.</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -4018,7 +4018,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Fly with caution</t>
+          <t>Home Point updated. RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -4028,7 +4028,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>IMU attitude restricted. Ensure aircraft is level</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -4038,37 +4038,37 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>IMU calibration required. Calibrate IMU</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance will be disabled in landing.</t>
+          <t>IMU not calibrated. Calibrate IMU</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Obstacle Avoided. Revise Flight Route</t>
+          <t>IMU warming up. Wait before taking off</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
+          <t>Image Transmission Recovered. Aircraft is returning home.</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -4078,7 +4078,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
+          <t>Image transmission signal lost</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -4088,7 +4088,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -4098,7 +4098,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
+          <t>Impact detected. Restart aircraft</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -4108,37 +4108,37 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>In Flight.</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Precision Landing. Correcting Landing Position.</t>
+          <t>Insufficient SD card space. Change card or delete files</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Precision Landing. Locating Landing Point</t>
+          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -4148,7 +4148,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Precision Landing. Rectifying aircraft position.</t>
+          <t>Landing Canceled.</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -4158,7 +4158,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Propeller Fell Off</t>
+          <t>Landing Gear Lowered.</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -4168,7 +4168,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
+          <t>Landing Gear Lowering.</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -4178,7 +4178,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Landing Gear Paused.</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -4188,7 +4188,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Landing Gear Raised.</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -4198,7 +4198,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Propulsion output has been limited to ensure battery health.</t>
+          <t>Landing Gear Raising.</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -4208,7 +4208,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Reaching maximum altitude...</t>
+          <t>Landing Gear Raising. Home Point Recorded</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -4218,7 +4218,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Recenter Gimbal Pan</t>
+          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
         </is>
       </c>
       <c r="B379" t="n">
@@ -4228,7 +4228,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Landing gear function restored</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -4238,7 +4238,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Rectifying aircraft position</t>
+          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -4248,7 +4248,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Remote controller assisted takeoff initiated.</t>
+          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -4258,7 +4258,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Remote controller battery level low. Recharge promptly</t>
+          <t>Landing.</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -4268,7 +4268,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Remote controller disconnected from aircraft</t>
+          <t>Large Wind Velocity.</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -4278,7 +4278,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Large Wind Velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -4288,17 +4288,17 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Remote controller signal lost</t>
+          <t>Lens not connected</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Remote controller signal weak. Adjust remote controller antennas</t>
+          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -4308,7 +4308,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -4318,27 +4318,27 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Restart aircraft and DJI Fly</t>
+          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Returning to the Home Point</t>
+          <t>Loading database failed. Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 65FT</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -4348,7 +4348,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT</t>
+          <t>Low Power. Aircraft is returning to the Home Point.</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -4358,7 +4358,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT.</t>
+          <t>Low Power. Returning home.</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -4368,7 +4368,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>RTH : Ascending to RTH altitude.</t>
+          <t>Low battery voltage. Fly with caution</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -4378,7 +4378,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>RTH : Heading alignment.</t>
+          <t>Low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -4388,7 +4388,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>RTH : Preascending.</t>
+          <t>Low battery. Return to home promptly</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -4398,7 +4398,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>RTH Altitude : 65FT.</t>
+          <t>Low power, please replace the battery</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -4408,7 +4408,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT.</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -4418,7 +4418,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -4428,7 +4428,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>RTH altitude adjusted to nnn</t>
+          <t>Manned aircraft approaching. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -4438,7 +4438,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
+          <t>Manned aircraft detected nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -4448,7 +4448,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Running Flight Simulator. Restart aircraft to take off</t>
+          <t>Manned aircraft too close. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -4458,7 +4458,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Satellite positioning off. Fly with Caution.</t>
+          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -4468,7 +4468,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Sensing system is blocked or too close to the obstacle.</t>
+          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -4478,7 +4478,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Set Flight Mode to GPS to fly safe</t>
+          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
         </is>
       </c>
       <c r="B405" t="n">
@@ -4488,7 +4488,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Setting new Maximum Flight Altitude to nnn</t>
+          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -4498,7 +4498,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Setting new Return-To-Home altitude to nnn</t>
+          <t>Maximum Flight Altitude Reached.</t>
         </is>
       </c>
       <c r="B407" t="n">
@@ -4508,7 +4508,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Signal Lost. Aircraft returning to Home Point</t>
+          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -4518,7 +4518,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Strong Aircraft Interference</t>
+          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -4528,7 +4528,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Strong Interference Detected. Be careful when flying long distances.</t>
+          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -4538,37 +4538,37 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Strong Interference Now. Fly with caution.</t>
+          <t>Min Waypoint Distance: nnn</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
+          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
+          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Strong Interference. Fly with caution.</t>
+          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -4578,7 +4578,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference</t>
+          <t>Motor error. Check propellers and fly with caution</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -4588,7 +4588,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference.</t>
+          <t>Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -4598,7 +4598,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
+          <t>Motor is Blocked</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -4608,7 +4608,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -4618,7 +4618,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Strong wind. Fly with caution</t>
+          <t>Motor is idling (lost or missing propeller)</t>
         </is>
       </c>
       <c r="B419" t="n">
@@ -4628,7 +4628,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution.</t>
+          <t>Motor nnn propeller detached or installed incorrectly</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -4638,7 +4638,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Motor nnn stalled. Land aircraft immediately</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -4648,7 +4648,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Subject too Large. Move Away and retry</t>
+          <t>Motor or propeller error. Check the motors and propellers.</t>
         </is>
       </c>
       <c r="B422" t="n">
@@ -4658,7 +4658,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Subject too Small. Get Closer and retry</t>
+          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -4668,7 +4668,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Switched to A (Attitude)-mode</t>
+          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B424" t="n">
@@ -4678,7 +4678,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Switched to S (Sport)-mode.</t>
+          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B425" t="n">
@@ -4688,7 +4688,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Take off in P-Mode</t>
+          <t>Motor unable to rotate. Check motor</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -4698,17 +4698,17 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Taking Off.</t>
+          <t>Motors Started.</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
+          <t>Navigation system error. Restart aircraft</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -4718,7 +4718,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>The aircraft is flying back to the start point</t>
+          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B429" t="n">
@@ -4728,7 +4728,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
+          <t>No GPS signal. Unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B430" t="n">
@@ -4738,7 +4738,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>The remaining battery is only enough for RTH. Return home now.</t>
+          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
         </is>
       </c>
       <c r="B431" t="n">
@@ -4748,7 +4748,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
+          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="B432" t="n">
@@ -4758,17 +4758,17 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
+          <t>No SD card. Insert card</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Unable to take off</t>
+          <t>Not Allowed to change Aircraft Mode. If needed</t>
         </is>
       </c>
       <c r="B434" t="n">
@@ -4778,7 +4778,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
+          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
         </is>
       </c>
       <c r="B435" t="n">
@@ -4788,37 +4788,37 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
+          <t>Not Enough Force/ESC Error</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Vision sensor error. Contact DJI Support for assistance</t>
+          <t>Object too close to laser rangefinder</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked. Fly with caution</t>
+          <t>Object too far for laser rangefinder</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Vision systems and obstacle avoidance disabled</t>
+          <t>Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B439" t="n">
@@ -4828,7 +4828,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate. Fly with caution</t>
+          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B440" t="n">
@@ -4838,7 +4838,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Obstacle Avoidance disabled. Fly with caution</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -4848,7 +4848,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
+          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -4858,7 +4858,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
+          <t>Obstacle Avoidance will be disabled in landing.</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -4868,7 +4868,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Warning: Critically low battery. Please change the battery</t>
+          <t>Obstacle Avoided. Revise Flight Route</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -4878,7 +4878,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -4888,57 +4888,57 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Warning: Motor Obstructed</t>
+          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
+          <t>PalmControl in Process</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
+          <t>Pano shooting completed. The sky part is filled automatically</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
+          <t>Pano successful</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Weak image transmission signal. Adjust antennas</t>
+          <t>Panorama Captured Successfully</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antenna and avoid signal block.</t>
+          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -4948,7 +4948,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antennas</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -4958,7 +4958,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight.</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B453" t="n">
@@ -4968,7 +4968,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight. Downlink Lost.</t>
+          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -4978,7 +4978,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Weak signal. Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="B455" t="n">
@@ -4988,7 +4988,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Yaw Error.</t>
+          <t>Precision Landing. Correcting Landing Position.</t>
         </is>
       </c>
       <c r="B456" t="n">
@@ -4998,7 +4998,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone. Please fly away or land with caution</t>
+          <t>Precision Landing. Locating Landing Point</t>
         </is>
       </c>
       <c r="B457" t="n">
@@ -5008,7 +5008,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
+          <t>Precision Landing. Rectifying aircraft position.</t>
         </is>
       </c>
       <c r="B458" t="n">
@@ -5018,7 +5018,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Your aircraft is flying in an Altitude Zone (nnn). Please fly with caution</t>
+          <t>Propeller Fell Off</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -5028,7 +5028,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Your palm is too close to the aircraft. Please step farther away.</t>
+          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -5038,1251 +5038,1251 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Your palm is too far away from the aircraft. Please step closer.</t>
+          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Accelerator is Over Range</t>
+          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
+          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>AE Locked. Metering disabled</t>
+          <t>Propellers not installed</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>3</v>
+        <v>56</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
+          <t>Propulsion output has been limited to ensure battery health.</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>QuickShot has ended</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>4</v>
+        <v>57</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
+          <t>RTH : Ascending to RTH altitude.</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
+          <t>RTH : Cruise.</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>4</v>
+        <v>61</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
+          <t>RTH : Heading alignment.</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
+          <t>RTH : Preascending.</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
+          <t>RTH Altitude : 65FT.</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Switched to P (Positioning)-mode.</t>
+          <t>RTH Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Switched to T (Tripod)-mode.</t>
+          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
+          <t>RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Aircraft settings updated to comply with national regulations</t>
+          <t>RTK Base Station Data Not Received</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>9</v>
+        <v>62</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>APAS has been enabled</t>
+          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>10</v>
+        <v>62</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
+          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Arrived at destination</t>
+          <t>Reaching maximum altitude...</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Arrived at End Point</t>
+          <t>Recenter Gimbal Pan</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Arrived at Start Point. Starting Waypoint Mission</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Executing waypoint mission</t>
+          <t>Rectifying aircraft position</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Waypoint Mission Paused</t>
+          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Waypoint Mission Resumed</t>
+          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Waypoint Mission Start</t>
+          <t>Remote ID functionality normal</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>At least two Waypoints are needed</t>
+          <t>Remote controller assisted takeoff initiated.</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>At Least Two Waypoints Required</t>
+          <t>Remote controller battery level low. Recharge promptly</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light set to automatic mode</t>
+          <t>Remote controller disconnected from aircraft</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned off</t>
+          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned on</t>
+          <t>Remote controller signal lost</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Away and Follow in progress.</t>
+          <t>Remote controller signal weak. Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Barometer Dead in Air</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
+          <t>Restart aircraft and DJI Fly</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Braking now! Return sticks to midpoints first.</t>
+          <t>Return-to-Home Altitude : 65FT</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
+          <t>Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Cache Space Full</t>
+          <t>Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
+          <t>Returning to the Home Point</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Camera busy, cannot enter playback</t>
+          <t>Right Dial Locked. Lightly press to adjust.</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Camera Settings ActiveTrack Optimized</t>
+          <t>Running Flight Simulator. Restart aircraft to take off</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted</t>
+          <t>SD card full. Change card or delete files</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted to ActiveTrack</t>
+          <t>SD card malfunction. Change card</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Camera storage full</t>
+          <t>SD card speed low. Change card</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Capture Failed Cannot enter Pano mode</t>
+          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Capture Failed Shooting interrupted</t>
+          <t>Satellite positioning off. Fly with Caution.</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
+          <t>Sensing system is blocked or too close to the obstacle.</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
+          <t>Set Flight Mode to GPS to fly safe</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
+          <t>Setting new Maximum Flight Altitude to nnn</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Capture Failed. Shooting is currently not permitted</t>
+          <t>Setting new Return-To-Home altitude to nnn</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
+          <t>Signal Lost. Aircraft returning to Home Point</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
+          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>22</v>
+        <v>63</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Pano successful</t>
+          <t>Sprayer turned ON</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>22</v>
+        <v>63</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Panorama Captured Successfully</t>
+          <t>Starting Smart Track</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>22</v>
+        <v>64</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Cannot exit ActiveTrack</t>
+          <t>Strong Aircraft Interference</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Cannot send ActiveTrack command</t>
+          <t>Strong Interference Detected. Be careful when flying long distances.</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Cannot start Self-Timer. Exposure time is too long</t>
+          <t>Strong Interference Now. Fly with caution.</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Command Failed</t>
+          <t>Strong Interference. Fly with caution.</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Command Timeout</t>
+          <t>Strong Remote Controller Interference</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Warning: Command Failed</t>
+          <t>Strong Remote Controller Interference.</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Warning: Command Timeout</t>
+          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
+          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Descending. Exited Visual Avoidance System</t>
+          <t>Strong wind. Fly with caution</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Exited Visual Avoidance System.</t>
+          <t>Strong wireless interference. Please fly with caution.</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Detecting subject</t>
+          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Disable SD card read and write protection or change card</t>
+          <t>Subject lost. Reselect subject</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>File system error. Change SD card</t>
+          <t>Subject lost. Searching …</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Insufficient SD card space. Change card or delete files</t>
+          <t>Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>No SD card. Insert card</t>
+          <t>Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>SD card full. Change card or delete files</t>
+          <t>Switched to A (Attitude)-mode</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>SD card malfunction. Change card</t>
+          <t>Switched to P (Positioning)-mode.</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>SD card speed low. Change card</t>
+          <t>Switched to S (Sport)-mode.</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
+          <t>Switched to T (Tripod)-mode.</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
+          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>31</v>
+        <v>66</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>During Smart Track, you can control lens zoom within a certain limit</t>
+          <t>Take off and retry this function.</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>EMMC is full</t>
+          <t>Take off in P-Mode</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
+          <t>Taking Off.</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Exited Cruise Control mode</t>
+          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Flight height too low</t>
+          <t>Tap the screen lightly to focus.</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
+          <t>Tap the screen to focus.</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>36</v>
+        <v>68</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>GPS Position Mismatch.</t>
+          <t>Tap to choose a valid zone.</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>37</v>
+        <v>69</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Ground Plain. Safe to Land.</t>
+          <t>Target lost. QuickShots stopped</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>IMU calibration required. Calibrate IMU</t>
+          <t>The aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>IMU not calibrated. Calibrate IMU</t>
+          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>IMU warming up. Wait before taking off</t>
+          <t>The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>In Flight.</t>
+          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
+          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Lens not connected</t>
+          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
+          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Loading database failed. Geo-awareness function degraded</t>
+          <t>Unable to take off</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Min Waypoint Distance: nnn</t>
+          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
+          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
+          <t>Upward Obstacle Detected</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>48</v>
+        <v>71</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Motors Started.</t>
+          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Not Enough Force/ESC Error</t>
+          <t>Vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Object too close to laser rangefinder</t>
+          <t>Vision sensor(s) blocked. Fly with caution</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Object too far for laser rangefinder</t>
+          <t>Vision systems and obstacle avoidance disabled</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
+          <t>Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>PalmControl in Process</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Pano shooting completed. The sky part is filled automatically</t>
+          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
+          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Propellers not installed</t>
+          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>QuickShot has ended</t>
+          <t>Warning: Command Failed</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Target lost. QuickShots stopped</t>
+          <t>Warning: Command Timeout</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
+          <t>Warning: Critically low battery. Please change the battery</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Right Dial Locked. Lightly press to adjust.</t>
+          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
+          <t>Warning: Motor Obstructed</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Remote ID functionality normal</t>
+          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>RTH : Cruise.</t>
+          <t>Waypoint Mission Paused</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received</t>
+          <t>Waypoint Mission Resumed</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>62</v>
+        <v>13</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
+          <t>Waypoint Mission Start</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>62</v>
+        <v>13</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
+          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Sprayer turned ON</t>
+          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Starting Smart Track</t>
+          <t>Weak image transmission signal. Adjust antennas</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Subject lost. Reselect subject</t>
+          <t>Weak signal. Adjust antenna and avoid signal block.</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>Subject lost. Searching …</t>
+          <t>Weak signal. Adjust antennas</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
+          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight.</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>Take off and retry this function.</t>
+          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight. Downlink Lost.</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>Tap the screen lightly to focus.</t>
+          <t>Weak signal. Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Tap the screen to focus.</t>
+          <t>Yaw Error.</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>Tap to choose a valid zone.</t>
+          <t>Your aircraft has entered a Warning Zone (Class D). Please fly with caution.</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone. Please fly away or land with caution</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
+          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>Upward Obstacle Detected</t>
+          <t>Your aircraft is flying in an Altitude Zone (nnn). Please fly with caution</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Warning</t>
+          <t>Your palm is too close to the aircraft. Please step farther away.</t>
         </is>
       </c>
       <c r="B584" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>Your aircraft has entered a Warning Zone (Class D). Please fly with caution.</t>
+          <t>Your palm is too far away from the aircraft. Please step closer.</t>
         </is>
       </c>
       <c r="B585" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
